--- a/config_aomi_5.18/game_module_config.xlsx
+++ b/config_aomi_5.18/game_module_config.xlsx
@@ -3848,9 +3848,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
@@ -3929,6 +3929,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -3937,7 +3958,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3951,8 +3972,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3966,8 +4002,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3989,60 +4026,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -4058,8 +4043,23 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4128,7 +4128,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4140,7 +4182,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4152,73 +4254,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4230,13 +4266,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4248,37 +4284,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4290,13 +4296,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4340,6 +4340,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -4351,6 +4366,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4372,11 +4398,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4389,39 +4422,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4430,10 +4430,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4442,133 +4442,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5046,11 +5046,11 @@
   <dimension ref="A1:I340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C297" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D318" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C316" sqref="C316"/>
+      <selection pane="bottomRight" activeCell="H339" sqref="H339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -13624,13 +13624,13 @@
         <v>990</v>
       </c>
       <c r="E337" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F337" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G337" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:9">
@@ -13644,13 +13644,13 @@
         <v>992</v>
       </c>
       <c r="E338">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F338">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G338">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I338" t="s">
         <v>993</v>
@@ -13670,13 +13670,13 @@
         <v>996</v>
       </c>
       <c r="E339">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F339">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G339">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I339" t="s">
         <v>993</v>
@@ -13696,13 +13696,13 @@
         <v>999</v>
       </c>
       <c r="E340" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F340" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G340" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I340" s="32" t="s">
         <v>1000</v>

--- a/config_aomi_5.18/game_module_config.xlsx
+++ b/config_aomi_5.18/game_module_config.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="1002">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="1003">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3821,6 +3821,9 @@
   </si>
   <si>
     <t>Act_040_MSLBManager</t>
+  </si>
+  <si>
+    <t>（180天领取）5月10日23:59:59</t>
   </si>
   <si>
     <t>act_054_byns</t>
@@ -3956,19 +3959,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -3987,13 +3988,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -4032,15 +4028,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4048,7 +4037,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4062,16 +4051,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4128,13 +4131,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4158,7 +4185,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4170,31 +4281,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4206,97 +4293,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4357,29 +4360,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4395,6 +4378,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4422,6 +4414,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4430,10 +4433,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4442,16 +4445,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4463,10 +4466,13 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4478,101 +4484,98 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -5050,7 +5053,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H342" sqref="H342"/>
+      <selection pane="bottomRight" activeCell="J339" sqref="J339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -13670,16 +13673,16 @@
         <v>996</v>
       </c>
       <c r="E339">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F339">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G339">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I339" t="s">
-        <v>993</v>
+        <v>997</v>
       </c>
     </row>
     <row r="340" ht="15.75" spans="1:9">
@@ -13687,13 +13690,13 @@
         <v>339</v>
       </c>
       <c r="B340" s="47" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="C340" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="D340" s="47" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E340" s="5">
         <v>0</v>
@@ -13705,7 +13708,7 @@
         <v>0</v>
       </c>
       <c r="I340" s="32" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
     </row>
   </sheetData>
@@ -13735,7 +13738,7 @@
   <sheetData>
     <row r="1" ht="153" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="2" ht="51.75" customHeight="1"/>

--- a/config_aomi_5.18/game_module_config.xlsx
+++ b/config_aomi_5.18/game_module_config.xlsx
@@ -3630,7 +3630,7 @@
     <t>周常活动皮肤</t>
   </si>
   <si>
-    <t>sys_act_base_style/sys_act_base_weekly_014</t>
+    <t>sys_act_base_style/sys_act_base_weekly_016</t>
   </si>
   <si>
     <t>扩展活动皮肤</t>
@@ -3848,9 +3848,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
@@ -3928,15 +3928,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3956,17 +3957,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3987,32 +3979,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4027,6 +3996,22 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -4035,24 +4020,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4065,8 +4034,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4134,7 +4134,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4146,43 +4278,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4194,109 +4296,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4325,6 +4325,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -4340,17 +4349,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4372,53 +4390,35 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4433,7 +4433,7 @@
     <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4442,133 +4442,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5046,11 +5046,11 @@
   <dimension ref="A1:I340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D318" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D307" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H339" sqref="H339"/>
+      <selection pane="bottomRight" activeCell="D320" sqref="D320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/config_aomi_5.18/game_module_config.xlsx
+++ b/config_aomi_5.18/game_module_config.xlsx
@@ -3600,7 +3600,7 @@
     <t>Act_Ty_QJD1Manager</t>
   </si>
   <si>
-    <t>act_ty_sjb_style/act_013_dlphb</t>
+    <t>act_ty_sjb_style/act_015_dlphb</t>
   </si>
   <si>
     <t>掉落排行榜皮肤（铁锤）</t>
@@ -3760,13 +3760,13 @@
     <t>act_052_qfhl</t>
   </si>
   <si>
-    <t>龙腾祈福</t>
+    <t>祈福好礼</t>
   </si>
   <si>
     <t>Act_052_QFHLManager</t>
   </si>
   <si>
-    <t>2021年4月16日 23:59:59</t>
+    <t>2021年5月24日 23:59:59</t>
   </si>
   <si>
     <t>act_ty_gifts</t>
@@ -3928,21 +3928,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -3958,22 +3943,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3987,6 +3979,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -3995,17 +4000,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4019,16 +4015,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4050,31 +4070,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4128,7 +4128,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4140,7 +4194,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4152,151 +4296,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4325,15 +4325,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -4345,15 +4336,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4373,6 +4355,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -4384,15 +4395,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4414,11 +4416,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4430,10 +4430,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4442,137 +4442,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -5046,11 +5046,11 @@
   <dimension ref="A1:I340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D307" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D316" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D320" sqref="D320"/>
+      <selection pane="bottomRight" activeCell="H342" sqref="H342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -13170,13 +13170,13 @@
         <v>936</v>
       </c>
       <c r="E319" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F319" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G319" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I319" s="36" t="s">
         <v>931</v>

--- a/config_aomi_5.18/game_module_config.xlsx
+++ b/config_aomi_5.18/game_module_config.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="1001">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="1002">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3609,10 +3609,13 @@
     <t>3月29日23:59:59</t>
   </si>
   <si>
-    <t>act_ty_by_drop_style/act_015_gongju</t>
-  </si>
-  <si>
-    <t>活动boss皮肤（铁锤）</t>
+    <t>act_ty_by_drop_style/act_011_boss</t>
+  </si>
+  <si>
+    <t>五星掉落</t>
+  </si>
+  <si>
+    <t>5月24日23:59:59</t>
   </si>
   <si>
     <t>act_ty_by_hhl_style/act_010_hhl</t>
@@ -3796,7 +3799,7 @@
     <t>act_053_xcns</t>
   </si>
   <si>
-    <t>消除达人</t>
+    <t>爱消福利</t>
   </si>
   <si>
     <t>Act_053_XCNSManager</t>
@@ -3845,9 +3848,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
@@ -3934,6 +3937,120 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -3949,121 +4066,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4125,13 +4128,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4149,13 +4182,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4167,7 +4194,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4179,109 +4284,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4293,7 +4296,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4322,30 +4325,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -4361,11 +4340,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4387,15 +4372,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -4405,17 +4381,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4427,10 +4430,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4439,133 +4442,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5043,11 +5046,11 @@
   <dimension ref="A1:I340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D278" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C297" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G293" sqref="G293"/>
+      <selection pane="bottomRight" activeCell="C316" sqref="C316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -13153,7 +13156,7 @@
         <v>1</v>
       </c>
       <c r="I318" s="36" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
     </row>
     <row r="319" s="6" customFormat="1" spans="1:9">
@@ -13161,10 +13164,10 @@
         <v>318</v>
       </c>
       <c r="B319" s="43" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="C319" s="36" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="E319" s="6">
         <v>1</v>
@@ -13184,10 +13187,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="44" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="C320" s="36" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="E320" s="6">
         <v>1</v>
@@ -13207,10 +13210,10 @@
         <v>320</v>
       </c>
       <c r="B321" s="45" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="C321" s="36" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="E321" s="6">
         <v>1</v>
@@ -13230,13 +13233,13 @@
         <v>321</v>
       </c>
       <c r="B322" s="43" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="C322" s="36" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="D322" s="43" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="E322" s="6">
         <v>1</v>
@@ -13248,7 +13251,7 @@
         <v>1</v>
       </c>
       <c r="I322" s="36" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="323" s="5" customFormat="1" spans="1:9">
@@ -13256,10 +13259,10 @@
         <v>322</v>
       </c>
       <c r="B323" s="46" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="C323" s="32" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="D323" s="33"/>
       <c r="E323" s="5">
@@ -13272,7 +13275,7 @@
         <v>0</v>
       </c>
       <c r="I323" s="32" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="324" s="5" customFormat="1" spans="1:9">
@@ -13280,13 +13283,13 @@
         <v>323</v>
       </c>
       <c r="B324" s="33" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C324" s="32" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D324" s="33" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="E324" s="5">
         <v>0</v>
@@ -13306,10 +13309,10 @@
         <v>324</v>
       </c>
       <c r="B325" s="33" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="C325" s="32" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="E325" s="5">
         <v>0</v>
@@ -13329,13 +13332,13 @@
         <v>325</v>
       </c>
       <c r="B326" s="33" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="C326" s="33" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D326" s="33" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="E326" s="5">
         <v>0</v>
@@ -13347,7 +13350,7 @@
         <v>0</v>
       </c>
       <c r="H326" s="5" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="I326" s="32" t="s">
         <v>925</v>
@@ -13358,13 +13361,13 @@
         <v>326</v>
       </c>
       <c r="B327" s="33" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="C327" s="32" t="s">
         <v>477</v>
       </c>
       <c r="D327" s="33" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="E327" s="5">
         <v>0</v>
@@ -13376,7 +13379,7 @@
         <v>0</v>
       </c>
       <c r="I327" s="32" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="328" s="5" customFormat="1" spans="1:9">
@@ -13384,13 +13387,13 @@
         <v>327</v>
       </c>
       <c r="B328" s="33" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="C328" s="32" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D328" s="33" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="E328" s="5">
         <v>0</v>
@@ -13402,7 +13405,7 @@
         <v>0</v>
       </c>
       <c r="I328" s="32" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
     <row r="329" s="5" customFormat="1" spans="1:9">
@@ -13410,13 +13413,13 @@
         <v>328</v>
       </c>
       <c r="B329" s="31" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="C329" s="32" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="D329" s="32" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E329" s="5">
         <v>0</v>
@@ -13436,13 +13439,13 @@
         <v>329</v>
       </c>
       <c r="B330" s="31" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="C330" s="32" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="D330" s="5" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="E330" s="5">
         <v>1</v>
@@ -13462,13 +13465,13 @@
         <v>330</v>
       </c>
       <c r="B331" s="8" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="C331" s="32" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="D331" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="E331" s="5">
         <v>1</v>
@@ -13488,13 +13491,13 @@
         <v>331</v>
       </c>
       <c r="B332" s="8" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="C332" s="32" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="D332" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="E332" s="5">
         <v>1</v>
@@ -13514,13 +13517,13 @@
         <v>332</v>
       </c>
       <c r="B333" s="8" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="C333" s="32" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="D333" s="28" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="E333" s="5">
         <v>1</v>
@@ -13532,7 +13535,7 @@
         <v>1</v>
       </c>
       <c r="I333" s="32" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
     </row>
     <row r="334" spans="1:9">
@@ -13540,13 +13543,13 @@
         <v>333</v>
       </c>
       <c r="B334" s="8" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="C334" s="32" t="s">
         <v>166</v>
       </c>
       <c r="D334" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="E334" s="5">
         <v>1</v>
@@ -13558,7 +13561,7 @@
         <v>1</v>
       </c>
       <c r="I334" s="32" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="335" spans="1:9">
@@ -13566,10 +13569,10 @@
         <v>334</v>
       </c>
       <c r="B335" s="8" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="C335" s="32" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="E335" s="5">
         <v>1</v>
@@ -13581,7 +13584,7 @@
         <v>1</v>
       </c>
       <c r="I335" s="32" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
     </row>
     <row r="336" spans="1:7">
@@ -13589,13 +13592,13 @@
         <v>335</v>
       </c>
       <c r="B336" s="8" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="C336" s="32" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="D336" s="28" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E336" s="5">
         <v>0</v>
@@ -13612,13 +13615,13 @@
         <v>336</v>
       </c>
       <c r="B337" s="8" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="C337" s="32" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="D337" s="28" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="E337" s="5">
         <v>1</v>
@@ -13635,10 +13638,10 @@
         <v>337</v>
       </c>
       <c r="B338" s="8" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="C338" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="E338">
         <v>1</v>
@@ -13650,7 +13653,7 @@
         <v>1</v>
       </c>
       <c r="I338" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
     </row>
     <row r="339" spans="1:9">
@@ -13658,25 +13661,25 @@
         <v>338</v>
       </c>
       <c r="B339" s="47" t="s">
+        <v>994</v>
+      </c>
+      <c r="C339" t="s">
+        <v>995</v>
+      </c>
+      <c r="D339" s="48" t="s">
+        <v>996</v>
+      </c>
+      <c r="E339">
+        <v>1</v>
+      </c>
+      <c r="F339">
+        <v>1</v>
+      </c>
+      <c r="G339">
+        <v>1</v>
+      </c>
+      <c r="I339" t="s">
         <v>993</v>
-      </c>
-      <c r="C339" t="s">
-        <v>994</v>
-      </c>
-      <c r="D339" s="48" t="s">
-        <v>995</v>
-      </c>
-      <c r="E339">
-        <v>1</v>
-      </c>
-      <c r="F339">
-        <v>1</v>
-      </c>
-      <c r="G339">
-        <v>1</v>
-      </c>
-      <c r="I339" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="340" ht="15.75" spans="1:9">
@@ -13684,13 +13687,13 @@
         <v>339</v>
       </c>
       <c r="B340" s="47" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="C340" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="D340" s="47" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="E340" s="5">
         <v>1</v>
@@ -13702,7 +13705,7 @@
         <v>1</v>
       </c>
       <c r="I340" s="32" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -13732,7 +13735,7 @@
   <sheetData>
     <row r="1" ht="153" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="2" ht="51.75" customHeight="1"/>
